--- a/input/spectrophotometry/dsl.5/data.input.xlsx
+++ b/input/spectrophotometry/dsl.5/data.input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\dsl.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\data science\chemistry\kev\input\spectrophotometry\dsl.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4577C25-A524-4D41-8EAB-C88D0F305A5B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85C07F7-DC26-4EEA-8449-DBFDBD83EAA9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stoich_coefficients" sheetId="1" r:id="rId1"/>
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
